--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_16.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_16.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N331"/>
+  <dimension ref="A1:N332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1536951065063477</v>
+        <v>0.0007691383361816406</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003764867782592773</v>
+        <v>0.0006058216094970703</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005677700042724609</v>
+        <v>0.01076817512512207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 3), (2, 3), (1, 3), (3, 2), (3, 0), (2, 0), (2, 2), (3, 1), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[3, 3], [2, 3], [1, 3], [3, 2], [3, 0], [2, 0], [2, 2], [3, 1], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[(3, 3), (2, 3), (0, 0), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[3, 3], [2, 3], [0, 0], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>[(0, 3), (3, 3), (1, 2), (3, 2), (3, 1), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (3, 0), (2, 1), (2, 2), (2, 3), (1, 3)]</t>
+          <t>[[0, 3], [3, 3], [1, 2], [3, 2], [3, 1], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [3, 0], [2, 1], [2, 2], [2, 3], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>[(3, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (1, 3), (3, 2), (3, 1), (0, 3), (3, 0)]</t>
+          <t>[[3, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 2], [3, 1], [0, 3], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 0), (1, 1), (0, 2), (0, 0), (0, 1), (1, 2), (2, 0), (3, 0), (2, 2), (3, 2), (1, 3), (2, 3), (3, 1), (0, 3), (3, 3)]</t>
+          <t>[[2, 1], [1, 0], [1, 1], [0, 2], [0, 0], [0, 1], [1, 2], [2, 0], [3, 0], [2, 2], [3, 2], [1, 3], [2, 3], [3, 1], [0, 3], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 1), (1, 1), (0, 0), (0, 3), (2, 3), (2, 0), (3, 1), (3, 3), (3, 0), (3, 2), (1, 2), (1, 0), (1, 3), (2, 1), (2, 2)]</t>
+          <t>[[0, 2], [0, 1], [1, 1], [0, 0], [0, 3], [2, 3], [2, 0], [3, 1], [3, 3], [3, 0], [3, 2], [1, 2], [1, 0], [1, 3], [2, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -2832,110 +2832,120 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>47</v>
+        <v>0.997104169959263</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>264</v>
+        <v>47</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>6</v>
+        <v>264</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.1883759498596191</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0.04471015930175781</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B331" t="inlineStr">
+      <c r="B332" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
+      <c r="C332" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D331" t="inlineStr">
+      <c r="D332" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E331" t="inlineStr">
+      <c r="E332" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F331" t="inlineStr">
+      <c r="F332" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G331" t="inlineStr">
+      <c r="G332" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
+      <c r="H332" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I331" t="inlineStr">
+      <c r="I332" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J331" t="inlineStr">
+      <c r="J332" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K331" t="inlineStr">
+      <c r="K332" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L331" t="inlineStr">
+      <c r="L332" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M331" t="inlineStr">
+      <c r="M332" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N331" t="inlineStr">
+      <c r="N332" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_16.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_16.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007691383361816406</v>
+        <v>0.0004529953002929688</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0006058216094970703</v>
+        <v>0.0002901554107666016</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01076817512512207</v>
+        <v>0.02808499336242676</v>
       </c>
     </row>
     <row r="8">
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.04471015930175781</v>
+        <v>0.05714201927185059</v>
       </c>
     </row>
     <row r="332">
